--- a/src/test/resources/testdatas/InputData.xlsx
+++ b/src/test/resources/testdatas/InputData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\WEB\src\test\resources\testdatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\WEB\WEBAutomation\src\test\resources\testdatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA50086-2DD5-4C13-A102-495BD0442887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47A7488-EEF3-4858-8554-34D043463A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2832" yWindow="1080" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddPlace" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="AddBook" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -92,6 +92,51 @@
   </si>
   <si>
     <t>TestID</t>
+  </si>
+  <si>
+    <t>Aisle</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>LMN</t>
+  </si>
+  <si>
+    <t>AS97</t>
+  </si>
+  <si>
+    <t>AS98</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Shyam</t>
+  </si>
+  <si>
+    <t>Jadu</t>
+  </si>
+  <si>
+    <t>Isbn</t>
+  </si>
+  <si>
+    <t>BookName</t>
+  </si>
+  <si>
+    <t>Rama</t>
   </si>
 </sst>
 </file>
@@ -441,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,12 +587,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2CE361-3560-4B0C-A688-C533CAE4D515}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>